--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vwf-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vwf-Itga2b.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.00563866666666</v>
+        <v>56.216147</v>
       </c>
       <c r="H2">
-        <v>99.01691599999999</v>
+        <v>168.648441</v>
       </c>
       <c r="I2">
-        <v>0.9169150302490913</v>
+        <v>0.9695233148109074</v>
       </c>
       <c r="J2">
-        <v>0.9169150302490912</v>
+        <v>0.9695233148109074</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8063316666666666</v>
+        <v>1.168007333333333</v>
       </c>
       <c r="N2">
-        <v>2.418995</v>
+        <v>3.504022</v>
       </c>
       <c r="O2">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="P2">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="Q2">
-        <v>26.6134916354911</v>
+        <v>65.66087194774467</v>
       </c>
       <c r="R2">
-        <v>239.52142471942</v>
+        <v>590.947847529702</v>
       </c>
       <c r="S2">
-        <v>0.1171255442621569</v>
+        <v>0.1588670312399328</v>
       </c>
       <c r="T2">
-        <v>0.1171255442621569</v>
+        <v>0.1588670312399328</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.00563866666666</v>
+        <v>56.216147</v>
       </c>
       <c r="H3">
-        <v>99.01691599999999</v>
+        <v>168.648441</v>
       </c>
       <c r="I3">
-        <v>0.9169150302490913</v>
+        <v>0.9695233148109074</v>
       </c>
       <c r="J3">
-        <v>0.9169150302490912</v>
+        <v>0.9695233148109074</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>10.734297</v>
       </c>
       <c r="O3">
-        <v>0.566840884181833</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="P3">
-        <v>0.5668408841818329</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="Q3">
-        <v>118.0974427075613</v>
+        <v>201.146939364553</v>
       </c>
       <c r="R3">
-        <v>1062.876984368052</v>
+        <v>1810.322454280977</v>
       </c>
       <c r="S3">
-        <v>0.519744926466007</v>
+        <v>0.4866767094606472</v>
       </c>
       <c r="T3">
-        <v>0.5197449264660069</v>
+        <v>0.4866767094606472</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.00563866666666</v>
+        <v>56.216147</v>
       </c>
       <c r="H4">
-        <v>99.01691599999999</v>
+        <v>168.648441</v>
       </c>
       <c r="I4">
-        <v>0.9169150302490913</v>
+        <v>0.9695233148109074</v>
       </c>
       <c r="J4">
-        <v>0.9169150302490912</v>
+        <v>0.9695233148109074</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.712026</v>
+        <v>1.915392333333333</v>
       </c>
       <c r="N4">
-        <v>5.136078</v>
+        <v>5.746177</v>
       </c>
       <c r="O4">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="P4">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="Q4">
-        <v>56.50651154393866</v>
+        <v>107.6759769733397</v>
       </c>
       <c r="R4">
-        <v>508.558603895448</v>
+        <v>969.083792760057</v>
       </c>
       <c r="S4">
-        <v>0.2486842391666335</v>
+        <v>0.2605229307833065</v>
       </c>
       <c r="T4">
-        <v>0.2486842391666335</v>
+        <v>0.2605229307833065</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>33.00563866666666</v>
+        <v>56.216147</v>
       </c>
       <c r="H5">
-        <v>99.01691599999999</v>
+        <v>168.648441</v>
       </c>
       <c r="I5">
-        <v>0.9169150302490913</v>
+        <v>0.9695233148109074</v>
       </c>
       <c r="J5">
-        <v>0.9169150302490912</v>
+        <v>0.9695233148109074</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.215895</v>
+        <v>0.46654</v>
       </c>
       <c r="N5">
-        <v>0.6476850000000001</v>
+        <v>1.39962</v>
       </c>
       <c r="O5">
-        <v>0.03420199180918048</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="P5">
-        <v>0.03420199180918047</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="Q5">
-        <v>7.12575235994</v>
+        <v>26.22708122138</v>
       </c>
       <c r="R5">
-        <v>64.13177123946001</v>
+        <v>236.04373099242</v>
       </c>
       <c r="S5">
-        <v>0.03136032035429389</v>
+        <v>0.06345664332702097</v>
       </c>
       <c r="T5">
-        <v>0.03136032035429388</v>
+        <v>0.06345664332702097</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.223964</v>
       </c>
       <c r="I6">
-        <v>0.002073948231580021</v>
+        <v>0.001287520467967504</v>
       </c>
       <c r="J6">
-        <v>0.002073948231580021</v>
+        <v>0.001287520467967504</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8063316666666666</v>
+        <v>1.168007333333333</v>
       </c>
       <c r="N6">
-        <v>2.418995</v>
+        <v>3.504022</v>
       </c>
       <c r="O6">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="P6">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="Q6">
-        <v>0.06019642179777777</v>
+        <v>0.08719719813422222</v>
       </c>
       <c r="R6">
-        <v>0.5417677961799999</v>
+        <v>0.784774783208</v>
       </c>
       <c r="S6">
-        <v>0.0002649234742387828</v>
+        <v>0.0002109743533568763</v>
       </c>
       <c r="T6">
-        <v>0.0002649234742387828</v>
+        <v>0.0002109743533568763</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.223964</v>
       </c>
       <c r="I7">
-        <v>0.002073948231580021</v>
+        <v>0.001287520467967504</v>
       </c>
       <c r="J7">
-        <v>0.002073948231580021</v>
+        <v>0.001287520467967504</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>10.734297</v>
       </c>
       <c r="O7">
-        <v>0.566840884181833</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="P7">
-        <v>0.5668408841818329</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="Q7">
         <v>0.2671217881453333</v>
@@ -883,10 +883,10 @@
         <v>2.404096093308</v>
       </c>
       <c r="S7">
-        <v>0.001175598649336168</v>
+        <v>0.0006463034102855679</v>
       </c>
       <c r="T7">
-        <v>0.001175598649336168</v>
+        <v>0.000646303410285568</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.223964</v>
       </c>
       <c r="I8">
-        <v>0.002073948231580021</v>
+        <v>0.001287520467967504</v>
       </c>
       <c r="J8">
-        <v>0.002073948231580021</v>
+        <v>0.001287520467967504</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.712026</v>
+        <v>1.915392333333333</v>
       </c>
       <c r="N8">
-        <v>5.136078</v>
+        <v>5.746177</v>
       </c>
       <c r="O8">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="P8">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="Q8">
-        <v>0.1278107303546667</v>
+        <v>0.1429929761808889</v>
       </c>
       <c r="R8">
-        <v>1.150296573192</v>
+        <v>1.286936785628</v>
       </c>
       <c r="S8">
-        <v>0.0005624929475759061</v>
+        <v>0.0003459727070347033</v>
       </c>
       <c r="T8">
-        <v>0.0005624929475759061</v>
+        <v>0.0003459727070347034</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>0.223964</v>
       </c>
       <c r="I9">
-        <v>0.002073948231580021</v>
+        <v>0.001287520467967504</v>
       </c>
       <c r="J9">
-        <v>0.002073948231580021</v>
+        <v>0.001287520467967504</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.215895</v>
+        <v>0.46654</v>
       </c>
       <c r="N9">
-        <v>0.6476850000000001</v>
+        <v>1.39962</v>
       </c>
       <c r="O9">
-        <v>0.03420199180918048</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="P9">
-        <v>0.03420199180918047</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="Q9">
-        <v>0.01611756926</v>
+        <v>0.03482938818666666</v>
       </c>
       <c r="R9">
-        <v>0.14505812334</v>
+        <v>0.31346449368</v>
       </c>
       <c r="S9">
-        <v>7.093316042916421E-05</v>
+        <v>8.426999729035693E-05</v>
       </c>
       <c r="T9">
-        <v>7.09331604291642E-05</v>
+        <v>8.426999729035695E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3398056666666667</v>
+        <v>0.4660483333333333</v>
       </c>
       <c r="H10">
-        <v>1.019417</v>
+        <v>1.398145</v>
       </c>
       <c r="I10">
-        <v>0.009439990732406147</v>
+        <v>0.008037632408272877</v>
       </c>
       <c r="J10">
-        <v>0.009439990732406145</v>
+        <v>0.008037632408272877</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8063316666666666</v>
+        <v>1.168007333333333</v>
       </c>
       <c r="N10">
-        <v>2.418995</v>
+        <v>3.504022</v>
       </c>
       <c r="O10">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="P10">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="Q10">
-        <v>0.2739960695461111</v>
+        <v>0.5443478710211112</v>
       </c>
       <c r="R10">
-        <v>2.465964625915</v>
+        <v>4.89913083919</v>
       </c>
       <c r="S10">
-        <v>0.00120585225008518</v>
+        <v>0.001317054246549221</v>
       </c>
       <c r="T10">
-        <v>0.00120585225008518</v>
+        <v>0.001317054246549221</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3398056666666667</v>
+        <v>0.4660483333333333</v>
       </c>
       <c r="H11">
-        <v>1.019417</v>
+        <v>1.398145</v>
       </c>
       <c r="I11">
-        <v>0.009439990732406147</v>
+        <v>0.008037632408272877</v>
       </c>
       <c r="J11">
-        <v>0.009439990732406145</v>
+        <v>0.008037632408272877</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>10.734297</v>
       </c>
       <c r="O11">
-        <v>0.566840884181833</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="P11">
-        <v>0.5668408841818329</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="Q11">
-        <v>1.215858316094333</v>
+        <v>1.667567075451666</v>
       </c>
       <c r="R11">
-        <v>10.942724844849</v>
+        <v>15.008103679065</v>
       </c>
       <c r="S11">
-        <v>0.005350972693425409</v>
+        <v>0.004034692546899124</v>
       </c>
       <c r="T11">
-        <v>0.005350972693425407</v>
+        <v>0.004034692546899124</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3398056666666667</v>
+        <v>0.4660483333333333</v>
       </c>
       <c r="H12">
-        <v>1.019417</v>
+        <v>1.398145</v>
       </c>
       <c r="I12">
-        <v>0.009439990732406147</v>
+        <v>0.008037632408272877</v>
       </c>
       <c r="J12">
-        <v>0.009439990732406145</v>
+        <v>0.008037632408272877</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.712026</v>
+        <v>1.915392333333333</v>
       </c>
       <c r="N12">
-        <v>5.136078</v>
+        <v>5.746177</v>
       </c>
       <c r="O12">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="P12">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="Q12">
-        <v>0.5817561362806667</v>
+        <v>0.8926654046294444</v>
       </c>
       <c r="R12">
-        <v>5.235805226526001</v>
+        <v>8.033988641665001</v>
       </c>
       <c r="S12">
-        <v>0.002560299303187064</v>
+        <v>0.002159811445040432</v>
       </c>
       <c r="T12">
-        <v>0.002560299303187063</v>
+        <v>0.002159811445040432</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3398056666666667</v>
+        <v>0.4660483333333333</v>
       </c>
       <c r="H13">
-        <v>1.019417</v>
+        <v>1.398145</v>
       </c>
       <c r="I13">
-        <v>0.009439990732406147</v>
+        <v>0.008037632408272877</v>
       </c>
       <c r="J13">
-        <v>0.009439990732406145</v>
+        <v>0.008037632408272877</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.215895</v>
+        <v>0.46654</v>
       </c>
       <c r="N13">
-        <v>0.6476850000000001</v>
+        <v>1.39962</v>
       </c>
       <c r="O13">
-        <v>0.03420199180918048</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="P13">
-        <v>0.03420199180918047</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="Q13">
-        <v>0.07336234440500002</v>
+        <v>0.2174301894333333</v>
       </c>
       <c r="R13">
-        <v>0.6602610996450001</v>
+        <v>1.9568717049</v>
       </c>
       <c r="S13">
-        <v>0.0003228664857084947</v>
+        <v>0.0005260741697840998</v>
       </c>
       <c r="T13">
-        <v>0.0003228664857084945</v>
+        <v>0.0005260741697840998</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.576299333333333</v>
+        <v>1.226435333333333</v>
       </c>
       <c r="H14">
-        <v>7.728898</v>
+        <v>3.679306</v>
       </c>
       <c r="I14">
-        <v>0.07157103078692273</v>
+        <v>0.02115153231285227</v>
       </c>
       <c r="J14">
-        <v>0.07157103078692272</v>
+        <v>0.02115153231285228</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.8063316666666666</v>
+        <v>1.168007333333333</v>
       </c>
       <c r="N14">
-        <v>2.418995</v>
+        <v>3.504022</v>
       </c>
       <c r="O14">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="P14">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="Q14">
-        <v>2.077351735278889</v>
+        <v>1.432485463192444</v>
       </c>
       <c r="R14">
-        <v>18.69616561751</v>
+        <v>12.892369168732</v>
       </c>
       <c r="S14">
-        <v>0.009142391233399921</v>
+        <v>0.003465910611312867</v>
       </c>
       <c r="T14">
-        <v>0.009142391233399919</v>
+        <v>0.003465910611312868</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.576299333333333</v>
+        <v>1.226435333333333</v>
       </c>
       <c r="H15">
-        <v>7.728898</v>
+        <v>3.679306</v>
       </c>
       <c r="I15">
-        <v>0.07157103078692273</v>
+        <v>0.02115153231285227</v>
       </c>
       <c r="J15">
-        <v>0.07157103078692272</v>
+        <v>0.02115153231285228</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>10.734297</v>
       </c>
       <c r="O15">
-        <v>0.566840884181833</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="P15">
-        <v>0.5668408841818329</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="Q15">
-        <v>9.218254068300666</v>
+        <v>4.388307039764666</v>
       </c>
       <c r="R15">
-        <v>82.96428661470598</v>
+        <v>39.49476335788199</v>
       </c>
       <c r="S15">
-        <v>0.04056938637306447</v>
+        <v>0.01061754574522759</v>
       </c>
       <c r="T15">
-        <v>0.04056938637306445</v>
+        <v>0.01061754574522759</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.576299333333333</v>
+        <v>1.226435333333333</v>
       </c>
       <c r="H16">
-        <v>7.728898</v>
+        <v>3.679306</v>
       </c>
       <c r="I16">
-        <v>0.07157103078692273</v>
+        <v>0.02115153231285227</v>
       </c>
       <c r="J16">
-        <v>0.07157103078692272</v>
+        <v>0.02115153231285228</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.712026</v>
+        <v>1.915392333333333</v>
       </c>
       <c r="N16">
-        <v>5.136078</v>
+        <v>5.746177</v>
       </c>
       <c r="O16">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="P16">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="Q16">
-        <v>4.410691442449334</v>
+        <v>2.349104834795778</v>
       </c>
       <c r="R16">
-        <v>39.69622298204401</v>
+        <v>21.141943513162</v>
       </c>
       <c r="S16">
-        <v>0.01941138137170941</v>
+        <v>0.005683678880663972</v>
       </c>
       <c r="T16">
-        <v>0.01941138137170941</v>
+        <v>0.005683678880663975</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.576299333333333</v>
+        <v>1.226435333333333</v>
       </c>
       <c r="H17">
-        <v>7.728898</v>
+        <v>3.679306</v>
       </c>
       <c r="I17">
-        <v>0.07157103078692273</v>
+        <v>0.02115153231285227</v>
       </c>
       <c r="J17">
-        <v>0.07157103078692272</v>
+        <v>0.02115153231285228</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.215895</v>
+        <v>0.46654</v>
       </c>
       <c r="N17">
-        <v>0.6476850000000001</v>
+        <v>1.39962</v>
       </c>
       <c r="O17">
-        <v>0.03420199180918048</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="P17">
-        <v>0.03420199180918047</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="Q17">
-        <v>0.5562101445700001</v>
+        <v>0.5721811404133332</v>
       </c>
       <c r="R17">
-        <v>5.00589130113</v>
+        <v>5.14963026372</v>
       </c>
       <c r="S17">
-        <v>0.002447871808748935</v>
+        <v>0.001384397075647845</v>
       </c>
       <c r="T17">
-        <v>0.002447871808748934</v>
+        <v>0.001384397075647846</v>
       </c>
     </row>
   </sheetData>
